--- a/docs/Esquema relacional FINAL E.xlsx
+++ b/docs/Esquema relacional FINAL E.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Downloads/isis2304-tutorial-arquitectura-2/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{781A5846-B8AA-0341-A51D-72F12BB3F882}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84CA968C-4ECE-9C4E-8CA9-5CEC84D6F9BF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -522,7 +522,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1212,18 +1212,18 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="19">
       <c r="A1" s="17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -1253,12 +1253,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="19">
       <c r="A5" s="17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="16" t="s">
         <v>0</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -1276,7 +1276,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1284,24 +1284,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D56" zoomScale="138" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="60" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.1640625" customWidth="1"/>
     <col min="3" max="3" width="34.83203125" customWidth="1"/>
-    <col min="4" max="4" width="25.1640625" customWidth="1"/>
+    <col min="4" max="4" width="23.83203125" customWidth="1"/>
     <col min="6" max="6" width="13.1640625" customWidth="1"/>
     <col min="7" max="7" width="20.33203125" customWidth="1"/>
-    <col min="8" max="8" width="110.5" customWidth="1"/>
+    <col min="8" max="8" width="49.1640625" customWidth="1"/>
     <col min="9" max="9" width="21.5" customWidth="1"/>
     <col min="13" max="13" width="31.33203125" customWidth="1"/>
     <col min="14" max="14" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -1319,7 +1319,7 @@
       <c r="H1" s="28"/>
       <c r="I1" s="29"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="6" t="s">
         <v>14</v>
       </c>
@@ -1337,7 +1337,7 @@
       <c r="H2" s="30"/>
       <c r="I2" s="31"/>
     </row>
-    <row r="3" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="16" thickBot="1">
       <c r="A3" s="8" t="s">
         <v>15</v>
       </c>
@@ -1353,7 +1353,7 @@
       <c r="H3" s="32"/>
       <c r="I3" s="33"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="13" t="s">
         <v>16</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="11" t="s">
         <v>27</v>
       </c>
@@ -1405,7 +1405,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="11" t="s">
         <v>22</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" s="11" t="s">
         <v>25</v>
       </c>
@@ -1457,7 +1457,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" s="11" t="s">
         <v>116</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" s="11" t="s">
         <v>29</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" s="11" t="s">
         <v>4</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" s="11" t="s">
         <v>33</v>
       </c>
@@ -1549,7 +1549,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" s="11" t="s">
         <v>99</v>
       </c>
@@ -1563,7 +1563,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" s="11" t="s">
         <v>140</v>
       </c>
@@ -1577,7 +1577,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14" s="11" t="s">
         <v>77</v>
       </c>
@@ -1591,19 +1591,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15" s="19"/>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
     </row>
-    <row r="16" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="16" thickBot="1">
       <c r="A16" s="19"/>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17" s="3" t="s">
         <v>13</v>
       </c>
@@ -1613,7 +1613,7 @@
       <c r="C17" s="26"/>
       <c r="D17" s="27"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18" s="6" t="s">
         <v>14</v>
       </c>
@@ -1623,7 +1623,7 @@
       <c r="C18" s="23"/>
       <c r="D18" s="24"/>
     </row>
-    <row r="19" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="16" thickBot="1">
       <c r="A19" s="8" t="s">
         <v>15</v>
       </c>
@@ -1633,7 +1633,7 @@
       <c r="C19" s="20"/>
       <c r="D19" s="21"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="A20" s="13" t="s">
         <v>16</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="A21" s="11" t="s">
         <v>21</v>
       </c>
@@ -1661,7 +1661,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9">
       <c r="A22" s="11" t="s">
         <v>38</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="16" thickBot="1">
       <c r="A23" s="11" t="s">
         <v>41</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9">
       <c r="A24" s="11" t="s">
         <v>43</v>
       </c>
@@ -1711,7 +1711,7 @@
       <c r="H24" s="4"/>
       <c r="I24" s="5"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9">
       <c r="A25" s="11" t="s">
         <v>46</v>
       </c>
@@ -1733,7 +1733,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="16" thickBot="1">
       <c r="A26" s="11" t="s">
         <v>34</v>
       </c>
@@ -1755,7 +1755,7 @@
       <c r="H26" s="9"/>
       <c r="I26" s="10"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9">
       <c r="A27" s="11" t="s">
         <v>70</v>
       </c>
@@ -1781,7 +1781,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9">
       <c r="A28" s="11" t="s">
         <v>71</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9">
       <c r="A29" s="11" t="s">
         <v>71</v>
       </c>
@@ -1833,7 +1833,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9">
       <c r="A30" s="11" t="s">
         <v>156</v>
       </c>
@@ -1859,7 +1859,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="16" thickBot="1">
       <c r="F31" s="11" t="s">
         <v>85</v>
       </c>
@@ -1873,7 +1873,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9">
       <c r="A32" s="3" t="s">
         <v>13</v>
       </c>
@@ -1895,7 +1895,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9">
       <c r="A33" s="6" t="s">
         <v>14</v>
       </c>
@@ -1917,7 +1917,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="16" thickBot="1">
       <c r="A34" s="8" t="s">
         <v>15</v>
       </c>
@@ -1939,7 +1939,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9">
       <c r="A35" s="13" t="s">
         <v>16</v>
       </c>
@@ -1965,7 +1965,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9">
       <c r="A36" s="11" t="s">
         <v>21</v>
       </c>
@@ -1979,7 +1979,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9">
       <c r="A37" s="11" t="s">
         <v>51</v>
       </c>
@@ -1993,7 +1993,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9">
       <c r="A38" s="11" t="s">
         <v>43</v>
       </c>
@@ -2007,7 +2007,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="16" thickBot="1">
       <c r="A39" s="11" t="s">
         <v>55</v>
       </c>
@@ -2021,7 +2021,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9">
       <c r="A40" s="11" t="s">
         <v>57</v>
       </c>
@@ -2043,7 +2043,7 @@
       <c r="H40" s="28"/>
       <c r="I40" s="29"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9">
       <c r="A41" s="11" t="s">
         <v>46</v>
       </c>
@@ -2065,7 +2065,7 @@
       <c r="H41" s="30"/>
       <c r="I41" s="31"/>
     </row>
-    <row r="42" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="16" thickBot="1">
       <c r="A42" s="11" t="s">
         <v>112</v>
       </c>
@@ -2087,7 +2087,7 @@
       <c r="H42" s="32"/>
       <c r="I42" s="33"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9">
       <c r="A43" s="11" t="s">
         <v>87</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9">
       <c r="F44" s="11" t="s">
         <v>21</v>
       </c>
@@ -2127,7 +2127,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="16" thickBot="1">
       <c r="F45" s="11" t="s">
         <v>46</v>
       </c>
@@ -2141,7 +2141,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9">
       <c r="A46" s="3" t="s">
         <v>13</v>
       </c>
@@ -2163,7 +2163,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9">
       <c r="A47" s="6" t="s">
         <v>14</v>
       </c>
@@ -2185,7 +2185,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="16" thickBot="1">
       <c r="A48" s="8" t="s">
         <v>15</v>
       </c>
@@ -2207,7 +2207,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9">
       <c r="A49" s="13" t="s">
         <v>16</v>
       </c>
@@ -2221,7 +2221,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="16" thickBot="1">
       <c r="A50" s="11" t="s">
         <v>64</v>
       </c>
@@ -2235,7 +2235,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9">
       <c r="A51" s="11" t="s">
         <v>65</v>
       </c>
@@ -2257,7 +2257,7 @@
       <c r="H51" s="28"/>
       <c r="I51" s="29"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9">
       <c r="A52" s="11" t="s">
         <v>85</v>
       </c>
@@ -2279,7 +2279,7 @@
       <c r="H52" s="30"/>
       <c r="I52" s="31"/>
     </row>
-    <row r="53" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="16" thickBot="1">
       <c r="A53" s="11" t="s">
         <v>99</v>
       </c>
@@ -2301,7 +2301,7 @@
       <c r="H53" s="32"/>
       <c r="I53" s="33"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9">
       <c r="A54" s="11" t="s">
         <v>68</v>
       </c>
@@ -2325,7 +2325,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9">
       <c r="A55" s="11" t="s">
         <v>69</v>
       </c>
@@ -2349,7 +2349,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9">
       <c r="A56" s="11" t="s">
         <v>161</v>
       </c>
@@ -2375,13 +2375,13 @@
         <v>139</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="16" thickBot="1">
       <c r="A57" s="19"/>
       <c r="B57" s="19"/>
       <c r="C57" s="19"/>
       <c r="D57" s="19"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9">
       <c r="A58" s="3" t="s">
         <v>13</v>
       </c>
@@ -2391,7 +2391,7 @@
       <c r="C58" s="28"/>
       <c r="D58" s="29"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9">
       <c r="A59" s="6" t="s">
         <v>14</v>
       </c>
@@ -2401,7 +2401,7 @@
       <c r="C59" s="30"/>
       <c r="D59" s="31"/>
     </row>
-    <row r="60" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="16" thickBot="1">
       <c r="A60" s="8" t="s">
         <v>15</v>
       </c>
@@ -2411,7 +2411,7 @@
       <c r="C60" s="32"/>
       <c r="D60" s="33"/>
     </row>
-    <row r="61" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="16" thickBot="1">
       <c r="A61" s="13" t="s">
         <v>16</v>
       </c>
@@ -2425,7 +2425,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9">
       <c r="A62" s="11" t="s">
         <v>21</v>
       </c>
@@ -2447,7 +2447,7 @@
       <c r="H62" s="28"/>
       <c r="I62" s="29"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9">
       <c r="A63" s="11" t="s">
         <v>46</v>
       </c>
@@ -2469,7 +2469,7 @@
       <c r="H63" s="30"/>
       <c r="I63" s="31"/>
     </row>
-    <row r="64" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="16" thickBot="1">
       <c r="A64" s="11" t="s">
         <v>77</v>
       </c>
@@ -2491,7 +2491,7 @@
       <c r="H64" s="32"/>
       <c r="I64" s="33"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9">
       <c r="A65" s="11" t="s">
         <v>110</v>
       </c>
@@ -2517,7 +2517,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9">
       <c r="A66" s="11" t="s">
         <v>70</v>
       </c>
@@ -2543,7 +2543,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9">
       <c r="A67" s="11" t="s">
         <v>71</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9">
       <c r="F68" s="11" t="s">
         <v>4</v>
       </c>
@@ -2583,7 +2583,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9">
       <c r="F69" s="11" t="s">
         <v>33</v>
       </c>
@@ -2597,7 +2597,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9">
       <c r="F70" s="11" t="s">
         <v>140</v>
       </c>
@@ -2613,6 +2613,19 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B48:D48"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="G3:I3"/>
@@ -2624,21 +2637,8 @@
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="G42:I42"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="G53:I53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/docs/Esquema relacional FINAL E.xlsx
+++ b/docs/Esquema relacional FINAL E.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliana/Desktop/B-15/isis2304-tutorial-arquitectura-2/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17535D61-D884-E94D-BCAB-6DC3F7F557C0}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{217B30B1-DB7C-FE44-A914-C7200DC2809F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Esquema de Relación" sheetId="1" r:id="rId1"/>
@@ -1071,6 +1071,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1087,19 +1100,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1540,53 +1540,53 @@
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="43"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="50"/>
       <c r="F1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="43"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="50"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="45"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="52"/>
       <c r="F2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="H2" s="44"/>
-      <c r="I2" s="45"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="52"/>
     </row>
     <row r="3" spans="1:9" ht="16" thickBot="1">
       <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="47"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="54"/>
       <c r="F3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="46" t="s">
+      <c r="G3" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="46"/>
-      <c r="I3" s="47"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="54"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="7" t="s">
@@ -1814,7 +1814,7 @@
       <c r="F13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="54" t="s">
+      <c r="G13" s="48" t="s">
         <v>180</v>
       </c>
       <c r="H13" s="36"/>
@@ -2006,7 +2006,7 @@
       <c r="F23" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="54" t="s">
+      <c r="G23" s="48" t="s">
         <v>74</v>
       </c>
       <c r="H23" s="36"/>
@@ -2084,7 +2084,7 @@
       <c r="K26" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L26" s="54" t="s">
+      <c r="L26" s="48" t="s">
         <v>187</v>
       </c>
       <c r="M26" s="36"/>
@@ -2265,28 +2265,28 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="16" thickBot="1">
-      <c r="F32" s="50" t="s">
+      <c r="F32" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="G32" s="51" t="s">
+      <c r="G32" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="H32" s="51" t="s">
+      <c r="H32" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="I32" s="52" t="s">
+      <c r="I32" s="46" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:14">
-      <c r="F33" s="49"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="49"/>
-      <c r="I33" s="49"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
       <c r="K33" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L33" s="54" t="s">
+      <c r="L33" s="48" t="s">
         <v>188</v>
       </c>
       <c r="M33" s="36"/>
@@ -2410,11 +2410,11 @@
       <c r="F39" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G39" s="42" t="s">
+      <c r="G39" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="H39" s="42"/>
-      <c r="I39" s="43"/>
+      <c r="H39" s="49"/>
+      <c r="I39" s="50"/>
       <c r="K39" s="13"/>
       <c r="L39" s="13"/>
       <c r="M39" s="13"/>
@@ -2436,11 +2436,11 @@
       <c r="F40" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G40" s="44" t="s">
+      <c r="G40" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="H40" s="44"/>
-      <c r="I40" s="45"/>
+      <c r="H40" s="51"/>
+      <c r="I40" s="52"/>
     </row>
     <row r="41" spans="1:14" ht="16" thickBot="1">
       <c r="A41" s="5" t="s">
@@ -2458,11 +2458,11 @@
       <c r="F41" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G41" s="46" t="s">
+      <c r="G41" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="H41" s="46"/>
-      <c r="I41" s="47"/>
+      <c r="H41" s="53"/>
+      <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="5" t="s">
@@ -2613,7 +2613,7 @@
       <c r="A49" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B49" s="53" t="s">
+      <c r="B49" s="47" t="s">
         <v>190</v>
       </c>
       <c r="C49" s="18"/>
@@ -2631,11 +2631,11 @@
       <c r="F50" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G50" s="42" t="s">
+      <c r="G50" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="H50" s="42"/>
-      <c r="I50" s="43"/>
+      <c r="H50" s="49"/>
+      <c r="I50" s="50"/>
     </row>
     <row r="51" spans="1:9" ht="16" thickBot="1">
       <c r="A51" s="4" t="s">
@@ -2649,11 +2649,11 @@
       <c r="F51" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G51" s="44" t="s">
+      <c r="G51" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="H51" s="44"/>
-      <c r="I51" s="45"/>
+      <c r="H51" s="51"/>
+      <c r="I51" s="52"/>
     </row>
     <row r="52" spans="1:9" ht="16" thickBot="1">
       <c r="A52" s="7" t="s">
@@ -2671,11 +2671,11 @@
       <c r="F52" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G52" s="46" t="s">
+      <c r="G52" s="53" t="s">
         <v>151</v>
       </c>
-      <c r="H52" s="46"/>
-      <c r="I52" s="47"/>
+      <c r="H52" s="53"/>
+      <c r="I52" s="54"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="5" t="s">
@@ -2785,7 +2785,7 @@
       <c r="A61" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B61" s="48" t="s">
+      <c r="B61" s="42" t="s">
         <v>70</v>
       </c>
       <c r="C61" s="18"/>
@@ -2793,11 +2793,11 @@
       <c r="F61" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G61" s="42" t="s">
+      <c r="G61" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="H61" s="42"/>
-      <c r="I61" s="43"/>
+      <c r="H61" s="49"/>
+      <c r="I61" s="50"/>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="3" t="s">
@@ -2811,11 +2811,11 @@
       <c r="F62" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G62" s="44" t="s">
+      <c r="G62" s="51" t="s">
         <v>115</v>
       </c>
-      <c r="H62" s="44"/>
-      <c r="I62" s="45"/>
+      <c r="H62" s="51"/>
+      <c r="I62" s="52"/>
     </row>
     <row r="63" spans="1:9" ht="16" thickBot="1">
       <c r="A63" s="4" t="s">
@@ -2829,11 +2829,11 @@
       <c r="F63" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G63" s="46" t="s">
+      <c r="G63" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="H63" s="46"/>
-      <c r="I63" s="47"/>
+      <c r="H63" s="53"/>
+      <c r="I63" s="54"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="7" t="s">
@@ -2976,7 +2976,7 @@
       <c r="A71" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B71" s="48" t="s">
+      <c r="B71" s="42" t="s">
         <v>160</v>
       </c>
       <c r="C71" s="18"/>
@@ -3059,7 +3059,7 @@
       <c r="A79" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B79" s="48" t="s">
+      <c r="B79" s="42" t="s">
         <v>161</v>
       </c>
       <c r="C79" s="18"/>
@@ -3142,7 +3142,7 @@
       <c r="A87" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B87" s="48" t="s">
+      <c r="B87" s="42" t="s">
         <v>162</v>
       </c>
       <c r="C87" s="18"/>
@@ -3225,7 +3225,7 @@
       <c r="A95" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B95" s="48" t="s">
+      <c r="B95" s="42" t="s">
         <v>183</v>
       </c>
       <c r="C95" s="18"/>
@@ -3312,7 +3312,7 @@
       <c r="A104" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B104" s="48" t="s">
+      <c r="B104" s="42" t="s">
         <v>179</v>
       </c>
       <c r="C104" s="18"/>
@@ -3382,12 +3382,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="G52:I52"/>
     <mergeCell ref="G39:I39"/>
     <mergeCell ref="G40:I40"/>
     <mergeCell ref="G41:I41"/>
@@ -3397,6 +3391,12 @@
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="G52:I52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
